--- a/Insta_Ay/following.xlsx
+++ b/Insta_Ay/following.xlsx
@@ -14,7 +14,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="302">
+  <si>
+    <t>Following List</t>
+  </si>
+  <si>
+    <t>memezar</t>
+  </si>
+  <si>
+    <t>amit_lathwal</t>
+  </si>
   <si>
     <t>ayusch97</t>
   </si>
@@ -86,6 +95,831 @@
   </si>
   <si>
     <t>yogi_m0x</t>
+  </si>
+  <si>
+    <t>shagun3528</t>
+  </si>
+  <si>
+    <t>uditi5</t>
+  </si>
+  <si>
+    <t>maharaaaa</t>
+  </si>
+  <si>
+    <t>ranaprashant303</t>
+  </si>
+  <si>
+    <t>peterbenjaminparker996</t>
+  </si>
+  <si>
+    <t>theadulthumour</t>
+  </si>
+  <si>
+    <t>vipulkarki</t>
+  </si>
+  <si>
+    <t>aryan_pathak</t>
+  </si>
+  <si>
+    <t>vocuzi</t>
+  </si>
+  <si>
+    <t>sakshigoyal97</t>
+  </si>
+  <si>
+    <t>shobhitm8</t>
+  </si>
+  <si>
+    <t>duggal7827</t>
+  </si>
+  <si>
+    <t>raghav98_</t>
+  </si>
+  <si>
+    <t>hkjxx7</t>
+  </si>
+  <si>
+    <t>varun_ok</t>
+  </si>
+  <si>
+    <t>udayjain_</t>
+  </si>
+  <si>
+    <t>neha__singh09</t>
+  </si>
+  <si>
+    <t>echuk_chauhan</t>
+  </si>
+  <si>
+    <t>_utkarshjaiswal</t>
+  </si>
+  <si>
+    <t>sheenaarora62</t>
+  </si>
+  <si>
+    <t>jo.kj21</t>
+  </si>
+  <si>
+    <t>tute_station</t>
+  </si>
+  <si>
+    <t>garushaarora</t>
+  </si>
+  <si>
+    <t>its_mr.batra_for_you</t>
+  </si>
+  <si>
+    <t>kataria_shubham</t>
+  </si>
+  <si>
+    <t>shubham_kathpalia</t>
+  </si>
+  <si>
+    <t>umeshstriker789</t>
+  </si>
+  <si>
+    <t>pawan_nyati</t>
+  </si>
+  <si>
+    <t>iamvaibhavmodi</t>
+  </si>
+  <si>
+    <t>x_hakuna._.matata_x</t>
+  </si>
+  <si>
+    <t>akshayypandeyy</t>
+  </si>
+  <si>
+    <t>aashna_chadha</t>
+  </si>
+  <si>
+    <t>ishimanshutiwari</t>
+  </si>
+  <si>
+    <t>priyanavneet</t>
+  </si>
+  <si>
+    <t>slimshady0150</t>
+  </si>
+  <si>
+    <t>smakky0001</t>
+  </si>
+  <si>
+    <t>sonalichitake11</t>
+  </si>
+  <si>
+    <t>sudarshansinghshekhawat</t>
+  </si>
+  <si>
+    <t>thehighhandedwriter</t>
+  </si>
+  <si>
+    <t>travelling_foodiee</t>
+  </si>
+  <si>
+    <t>becomingandunbecoming</t>
+  </si>
+  <si>
+    <t>jagzlakra1</t>
+  </si>
+  <si>
+    <t>agarwallarajesh13</t>
+  </si>
+  <si>
+    <t>bip_lab</t>
+  </si>
+  <si>
+    <t>007michaelforrest</t>
+  </si>
+  <si>
+    <t>_soorj_</t>
+  </si>
+  <si>
+    <t>raghav_budhiraja_</t>
+  </si>
+  <si>
+    <t>karan_goel</t>
+  </si>
+  <si>
+    <t>_451football</t>
+  </si>
+  <si>
+    <t>tashigupta96</t>
+  </si>
+  <si>
+    <t>nitika.katyal</t>
+  </si>
+  <si>
+    <t>vishalpanwar0</t>
+  </si>
+  <si>
+    <t>himalaya_31</t>
+  </si>
+  <si>
+    <t>shubham5294</t>
+  </si>
+  <si>
+    <t>khanna_yuvi</t>
+  </si>
+  <si>
+    <t>artist_in_spotlight</t>
+  </si>
+  <si>
+    <t>itzme_royk</t>
+  </si>
+  <si>
+    <t>arjungrover1511</t>
+  </si>
+  <si>
+    <t>saahil.8</t>
+  </si>
+  <si>
+    <t>madhurkakar14</t>
+  </si>
+  <si>
+    <t>amitderwal</t>
+  </si>
+  <si>
+    <t>abhisheklahoti87</t>
+  </si>
+  <si>
+    <t>lakshay21_arora</t>
+  </si>
+  <si>
+    <t>weedish_____</t>
+  </si>
+  <si>
+    <t>vaibhav_auditore_tiwari</t>
+  </si>
+  <si>
+    <t>vishnu.anand81</t>
+  </si>
+  <si>
+    <t>yashj10</t>
+  </si>
+  <si>
+    <t>deepanshu_jayant</t>
+  </si>
+  <si>
+    <t>s_for_special</t>
+  </si>
+  <si>
+    <t>aastha_bhakuni</t>
+  </si>
+  <si>
+    <t>ayooshgrover</t>
+  </si>
+  <si>
+    <t>papapandeyofficial</t>
+  </si>
+  <si>
+    <t>savitamahesvary</t>
+  </si>
+  <si>
+    <t>viraj_ghelani</t>
+  </si>
+  <si>
+    <t>dasakashdeep</t>
+  </si>
+  <si>
+    <t>sangeeta.t.gulati</t>
+  </si>
+  <si>
+    <t>avi.lucifer</t>
+  </si>
+  <si>
+    <t>the_ironical_life</t>
+  </si>
+  <si>
+    <t>kritika_arora734</t>
+  </si>
+  <si>
+    <t>aayush_gupta96</t>
+  </si>
+  <si>
+    <t>achal_95</t>
+  </si>
+  <si>
+    <t>gaurang_sahu</t>
+  </si>
+  <si>
+    <t>ishank_bahl</t>
+  </si>
+  <si>
+    <t>vardaan1906</t>
+  </si>
+  <si>
+    <t>guptavishav</t>
+  </si>
+  <si>
+    <t>bhargavaaishwarya</t>
+  </si>
+  <si>
+    <t>thatsartisting</t>
+  </si>
+  <si>
+    <t>vishanktomar</t>
+  </si>
+  <si>
+    <t>rishabh_sarda97</t>
+  </si>
+  <si>
+    <t>pravesh8143660</t>
+  </si>
+  <si>
+    <t>breajeshsharma</t>
+  </si>
+  <si>
+    <t>divyanshudeutsch</t>
+  </si>
+  <si>
+    <t>sampa12roy</t>
+  </si>
+  <si>
+    <t>lambachutia</t>
+  </si>
+  <si>
+    <t>m.b_420</t>
+  </si>
+  <si>
+    <t>sauravgg</t>
+  </si>
+  <si>
+    <t>gktmaheshwari</t>
+  </si>
+  <si>
+    <t>diwansh99</t>
+  </si>
+  <si>
+    <t>himanshu.gautam.9469</t>
+  </si>
+  <si>
+    <t>harrshytgupta</t>
+  </si>
+  <si>
+    <t>knj007</t>
+  </si>
+  <si>
+    <t>ishaan_tuteja_gym_freak</t>
+  </si>
+  <si>
+    <t>arnavwahal</t>
+  </si>
+  <si>
+    <t>neevarp_96</t>
+  </si>
+  <si>
+    <t>vishant_baliyan_</t>
+  </si>
+  <si>
+    <t>thewisdomofanatomy</t>
+  </si>
+  <si>
+    <t>mukulbhali</t>
+  </si>
+  <si>
+    <t>iamaashishmamgain</t>
+  </si>
+  <si>
+    <t>karan.aj123</t>
+  </si>
+  <si>
+    <t>wings_to_your_thoughts</t>
+  </si>
+  <si>
+    <t>sajalgarg26</t>
+  </si>
+  <si>
+    <t>canvas_of_thoughts</t>
+  </si>
+  <si>
+    <t>niti_173</t>
+  </si>
+  <si>
+    <t>rlvipulsharma</t>
+  </si>
+  <si>
+    <t>kavitadevpura</t>
+  </si>
+  <si>
+    <t>rai_kage20</t>
+  </si>
+  <si>
+    <t>roykunal20</t>
+  </si>
+  <si>
+    <t>fantasy_baba</t>
+  </si>
+  <si>
+    <t>sweetsimplesurprises</t>
+  </si>
+  <si>
+    <t>adi.bham</t>
+  </si>
+  <si>
+    <t>anuj_98v</t>
+  </si>
+  <si>
+    <t>sagnik12roy</t>
+  </si>
+  <si>
+    <t>ni5696</t>
+  </si>
+  <si>
+    <t>manshu_madaan_</t>
+  </si>
+  <si>
+    <t>likeabletarantula</t>
+  </si>
+  <si>
+    <t>pooja.lahoti1705</t>
+  </si>
+  <si>
+    <t>n1t35h_57</t>
+  </si>
+  <si>
+    <t>rishabh4evr</t>
+  </si>
+  <si>
+    <t>goldcoin_10</t>
+  </si>
+  <si>
+    <t>tanvi_mandovara</t>
+  </si>
+  <si>
+    <t>atvasundhra7</t>
+  </si>
+  <si>
+    <t>billionaire_psyche</t>
+  </si>
+  <si>
+    <t>theballetofwords</t>
+  </si>
+  <si>
+    <t>timber.twang</t>
+  </si>
+  <si>
+    <t>adityamathur97</t>
+  </si>
+  <si>
+    <t>therealhuy_1997</t>
+  </si>
+  <si>
+    <t>breozen</t>
+  </si>
+  <si>
+    <t>kanishk_kabra</t>
+  </si>
+  <si>
+    <t>priyankmehta99</t>
+  </si>
+  <si>
+    <t>vishrutkohli</t>
+  </si>
+  <si>
+    <t>iamtaasha</t>
+  </si>
+  <si>
+    <t>ayush_397</t>
+  </si>
+  <si>
+    <t>the_ultimate_trolls_</t>
+  </si>
+  <si>
+    <t>samakshaggarwal</t>
+  </si>
+  <si>
+    <t>bitchwaplz</t>
+  </si>
+  <si>
+    <t>di5tan</t>
+  </si>
+  <si>
+    <t>anaverageindianboy</t>
+  </si>
+  <si>
+    <t>abhishekarora2939</t>
+  </si>
+  <si>
+    <t>abhisheknegi97</t>
+  </si>
+  <si>
+    <t>mihirmaheshwari7</t>
+  </si>
+  <si>
+    <t>atharvsatija97</t>
+  </si>
+  <si>
+    <t>diwansh12</t>
+  </si>
+  <si>
+    <t>lakshay_aggarwal97</t>
+  </si>
+  <si>
+    <t>iam_vineet</t>
+  </si>
+  <si>
+    <t>virginradiolebanon</t>
+  </si>
+  <si>
+    <t>jmaanas97</t>
+  </si>
+  <si>
+    <t>bollywoodgandu</t>
+  </si>
+  <si>
+    <t>nilayanand</t>
+  </si>
+  <si>
+    <t>allindiabakchod</t>
+  </si>
+  <si>
+    <t>tvfqtiyapa</t>
+  </si>
+  <si>
+    <t>rizulkhanna</t>
+  </si>
+  <si>
+    <t>jyoti_ranii</t>
+  </si>
+  <si>
+    <t>kapil.kumar.kaku</t>
+  </si>
+  <si>
+    <t>samridhbakshi</t>
+  </si>
+  <si>
+    <t>thedesistuff</t>
+  </si>
+  <si>
+    <t>indainboi</t>
+  </si>
+  <si>
+    <t>_thisissahil</t>
+  </si>
+  <si>
+    <t>anupsingh_009</t>
+  </si>
+  <si>
+    <t>harshsoin16</t>
+  </si>
+  <si>
+    <t>pulkitkkr001</t>
+  </si>
+  <si>
+    <t>tarun_kukreja_003</t>
+  </si>
+  <si>
+    <t>flynn_rider_ah</t>
+  </si>
+  <si>
+    <t>parmarprateek10</t>
+  </si>
+  <si>
+    <t>adityakoli0010</t>
+  </si>
+  <si>
+    <t>tyrionlannister</t>
+  </si>
+  <si>
+    <t>mr_ravnish</t>
+  </si>
+  <si>
+    <t>vigzmv</t>
+  </si>
+  <si>
+    <t>itsreallyamrit</t>
+  </si>
+  <si>
+    <t>harshit_gupta.techy</t>
+  </si>
+  <si>
+    <t>muskanchowdhary_</t>
+  </si>
+  <si>
+    <t>tarpanaggarwal</t>
+  </si>
+  <si>
+    <t>tp.taran</t>
+  </si>
+  <si>
+    <t>nita23arora</t>
+  </si>
+  <si>
+    <t>abhs.crazy13</t>
+  </si>
+  <si>
+    <t>umeshnyati</t>
+  </si>
+  <si>
+    <t>bhand.nahi.bhandari</t>
+  </si>
+  <si>
+    <t>medha_gulati</t>
+  </si>
+  <si>
+    <t>shivam.entrepreneur</t>
+  </si>
+  <si>
+    <t>vibhu.jain</t>
+  </si>
+  <si>
+    <t>lahotiamit90</t>
+  </si>
+  <si>
+    <t>chhavi.mandowara</t>
+  </si>
+  <si>
+    <t>shobhit_dayal</t>
+  </si>
+  <si>
+    <t>pro_caffeinating</t>
+  </si>
+  <si>
+    <t>rizulkhanna13</t>
+  </si>
+  <si>
+    <t>nihirmandowara</t>
+  </si>
+  <si>
+    <t>anshjhawar</t>
+  </si>
+  <si>
+    <t>chitradabral</t>
+  </si>
+  <si>
+    <t>ssimransharma</t>
+  </si>
+  <si>
+    <t>madaan.laksh</t>
+  </si>
+  <si>
+    <t>thatscorpio_lure</t>
+  </si>
+  <si>
+    <t>akshay.marwah</t>
+  </si>
+  <si>
+    <t>prakshimandovara</t>
+  </si>
+  <si>
+    <t>_sakshiarora_</t>
+  </si>
+  <si>
+    <t>pranalbali</t>
+  </si>
+  <si>
+    <t>ayushvaid</t>
+  </si>
+  <si>
+    <t>yladdha</t>
+  </si>
+  <si>
+    <t>rashidad2</t>
+  </si>
+  <si>
+    <t>ratheeeee</t>
+  </si>
+  <si>
+    <t>shivangivats.v</t>
+  </si>
+  <si>
+    <t>ni3sama</t>
+  </si>
+  <si>
+    <t>shivamsaxena_</t>
+  </si>
+  <si>
+    <t>kapoorutkarsh</t>
+  </si>
+  <si>
+    <t>tusharmandovara</t>
+  </si>
+  <si>
+    <t>vibhuti_shankar</t>
+  </si>
+  <si>
+    <t>sarahwenchesfild</t>
+  </si>
+  <si>
+    <t>parinav_</t>
+  </si>
+  <si>
+    <t>lidiane_litoral</t>
+  </si>
+  <si>
+    <t>forever_akela</t>
+  </si>
+  <si>
+    <t>bbsinha_</t>
+  </si>
+  <si>
+    <t>irlenerosa3</t>
+  </si>
+  <si>
+    <t>_.shaayu._</t>
+  </si>
+  <si>
+    <t>goyal.alisha</t>
+  </si>
+  <si>
+    <t>kashika_chawla</t>
+  </si>
+  <si>
+    <t>ashreykakkar1416</t>
+  </si>
+  <si>
+    <t>arjun.chopra1997</t>
+  </si>
+  <si>
+    <t>udbhavkataria</t>
+  </si>
+  <si>
+    <t>510surbhi</t>
+  </si>
+  <si>
+    <t>bhanu_prataaap</t>
+  </si>
+  <si>
+    <t>iamkunalnagpal</t>
+  </si>
+  <si>
+    <t>nikunjsi</t>
+  </si>
+  <si>
+    <t>iharshitkaushik</t>
+  </si>
+  <si>
+    <t>shaharyaar_khan</t>
+  </si>
+  <si>
+    <t>ashish_chdhry</t>
+  </si>
+  <si>
+    <t>shahzeenrizvi</t>
+  </si>
+  <si>
+    <t>rashisahni</t>
+  </si>
+  <si>
+    <t>sanyashandilya</t>
+  </si>
+  <si>
+    <t>kabeera18</t>
+  </si>
+  <si>
+    <t>sanchiatwal</t>
+  </si>
+  <si>
+    <t>saloniailawadi</t>
+  </si>
+  <si>
+    <t>kunal_khurana</t>
+  </si>
+  <si>
+    <t>8fact</t>
+  </si>
+  <si>
+    <t>9gag</t>
+  </si>
+  <si>
+    <t>saaaatvikkkk</t>
+  </si>
+  <si>
+    <t>medhagulati</t>
+  </si>
+  <si>
+    <t>tanisharai_</t>
+  </si>
+  <si>
+    <t>anmolsethi97</t>
+  </si>
+  <si>
+    <t>tanviijain</t>
+  </si>
+  <si>
+    <t>ekus1234</t>
+  </si>
+  <si>
+    <t>atharvsatija</t>
+  </si>
+  <si>
+    <t>yashdeepdalal</t>
+  </si>
+  <si>
+    <t>arjunagg</t>
+  </si>
+  <si>
+    <t>aditya.manocha</t>
+  </si>
+  <si>
+    <t>rashkath</t>
+  </si>
+  <si>
+    <t>meharshkhandelwal</t>
+  </si>
+  <si>
+    <t>hj48913</t>
+  </si>
+  <si>
+    <t>manamonga</t>
+  </si>
+  <si>
+    <t>dhawan0201</t>
+  </si>
+  <si>
+    <t>story_of_varun</t>
+  </si>
+  <si>
+    <t>vardaan001</t>
+  </si>
+  <si>
+    <t>ranatarun</t>
+  </si>
+  <si>
+    <t>rahulpanwar16</t>
+  </si>
+  <si>
+    <t>dewanmanu</t>
+  </si>
+  <si>
+    <t>shikhar5</t>
+  </si>
+  <si>
+    <t>the_scarlet_speeeedster</t>
+  </si>
+  <si>
+    <t>sanyamkhullar</t>
+  </si>
+  <si>
+    <t>srijandwivedi</t>
+  </si>
+  <si>
+    <t>smileasucanasmuch</t>
+  </si>
+  <si>
+    <t>sant.purush._.atyant.shaant</t>
+  </si>
+  <si>
+    <t>deepakdahiya17</t>
+  </si>
+  <si>
+    <t>pratikmangla</t>
+  </si>
+  <si>
+    <t>sanchit_gandhi</t>
+  </si>
+  <si>
+    <t>robinsingh_</t>
+  </si>
+  <si>
+    <t>garvitrastogi</t>
+  </si>
+  <si>
+    <t>iamharshitjain</t>
+  </si>
+  <si>
+    <t>anjali_bhatnagar</t>
   </si>
 </sst>
 </file>
@@ -417,7 +1251,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A24"/>
+  <dimension ref="A1:A302"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,6 +1377,1396 @@
         <v>23</v>
       </c>
     </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1">
+      <c r="A206" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1">
+      <c r="A207" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1">
+      <c r="A208" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1">
+      <c r="A209" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1">
+      <c r="A210" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1">
+      <c r="A212" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1">
+      <c r="A213" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1">
+      <c r="A214" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1">
+      <c r="A215" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1">
+      <c r="A216" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1">
+      <c r="A217" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1">
+      <c r="A218" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1">
+      <c r="A219" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1">
+      <c r="A220" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1">
+      <c r="A221" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1">
+      <c r="A222" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1">
+      <c r="A223" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1">
+      <c r="A224" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1">
+      <c r="A225" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1">
+      <c r="A226" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1">
+      <c r="A227" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1">
+      <c r="A228" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1">
+      <c r="A229" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1">
+      <c r="A230" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1">
+      <c r="A231" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1">
+      <c r="A232" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1">
+      <c r="A233" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1">
+      <c r="A234" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1">
+      <c r="A235" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1">
+      <c r="A236" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1">
+      <c r="A237" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1">
+      <c r="A238" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1">
+      <c r="A239" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1">
+      <c r="A240" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1">
+      <c r="A241" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1">
+      <c r="A242" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1">
+      <c r="A243" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1">
+      <c r="A244" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1">
+      <c r="A245" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1">
+      <c r="A246" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1">
+      <c r="A247" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1">
+      <c r="A248" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1">
+      <c r="A249" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1">
+      <c r="A250" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1">
+      <c r="A251" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1">
+      <c r="A252" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1">
+      <c r="A253" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1">
+      <c r="A254" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1">
+      <c r="A255" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1">
+      <c r="A256" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1">
+      <c r="A257" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1">
+      <c r="A258" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1">
+      <c r="A259" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1">
+      <c r="A260" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1">
+      <c r="A261" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1">
+      <c r="A262" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1">
+      <c r="A263" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1">
+      <c r="A264" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1">
+      <c r="A265" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1">
+      <c r="A266" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1">
+      <c r="A267" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1">
+      <c r="A268" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1">
+      <c r="A269" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1">
+      <c r="A270" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1">
+      <c r="A271" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1">
+      <c r="A272" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1">
+      <c r="A273" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1">
+      <c r="A274" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1">
+      <c r="A275" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1">
+      <c r="A276" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1">
+      <c r="A277" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1">
+      <c r="A278" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1">
+      <c r="A279" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1">
+      <c r="A280" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1">
+      <c r="A281" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1">
+      <c r="A282" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1">
+      <c r="A283" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1">
+      <c r="A284" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1">
+      <c r="A285" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1">
+      <c r="A286" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1">
+      <c r="A287" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1">
+      <c r="A288" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1">
+      <c r="A289" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1">
+      <c r="A290" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1">
+      <c r="A291" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1">
+      <c r="A292" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1">
+      <c r="A293" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1">
+      <c r="A294" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1">
+      <c r="A295" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1">
+      <c r="A296" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1">
+      <c r="A297" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1">
+      <c r="A298" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1">
+      <c r="A299" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1">
+      <c r="A300" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1">
+      <c r="A301" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1">
+      <c r="A302" t="s">
+        <v>301</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
